--- a/programs/pipelining/pipeliningimmediatemovs.xlsx
+++ b/programs/pipelining/pipeliningimmediatemovs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacla\Projects\cpu\programs\pipelining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621B198F-1CBE-4202-902E-39B56FEE9A6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18E454B-BB7C-4E6A-B2AE-71E881E00445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Code" sheetId="1" r:id="rId1"/>
+    <sheet name="Pipelining" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Hex</t>
   </si>
@@ -142,6 +143,18 @@
   </si>
   <si>
     <t>STP</t>
+  </si>
+  <si>
+    <t>0x004</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
   </si>
 </sst>
 </file>
@@ -525,16 +538,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E17FB6-AC76-4C3E-BEFA-6AB3607784FD}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="A8:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.7890625" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>15</v>
       </c>
@@ -584,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -619,7 +632,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -656,7 +669,7 @@
       </c>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -699,7 +712,7 @@
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -726,7 +739,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -757,7 +770,7 @@
       </c>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -778,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -838,7 +851,7 @@
         <v>C221</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -898,7 +911,7 @@
         <v>C641</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -958,7 +971,7 @@
         <v>CA61</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1018,7 +1031,10 @@
         <v>CE81</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1075,60 +1091,70 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="K6:P6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:M2"/>
@@ -1138,19 +1164,112 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:R5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B6F56D-2C9C-40C9-B645-117643694165}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>